--- a/profil.xlsx
+++ b/profil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Taux</t>
   </si>
@@ -44,6 +44,27 @@
     <t>6</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>CP1</t>
   </si>
   <si>
@@ -60,6 +81,27 @@
   </si>
   <si>
     <t>CM2</t>
+  </si>
+  <si>
+    <t>6ieme</t>
+  </si>
+  <si>
+    <t>5ieme</t>
+  </si>
+  <si>
+    <t>4iem</t>
+  </si>
+  <si>
+    <t>3ieme</t>
+  </si>
+  <si>
+    <t>2nde</t>
+  </si>
+  <si>
+    <t>1ere</t>
+  </si>
+  <si>
+    <t>3em</t>
   </si>
 </sst>
 </file>
@@ -130,7 +172,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>121.57726163784348</v>
@@ -147,7 +189,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>122.0862675038666</v>
@@ -164,7 +206,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>104.90994106756185</v>
@@ -181,7 +223,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>99.44823583013812</v>
@@ -198,7 +240,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>104.69875246248897</v>
@@ -215,7 +257,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>92.37894159864497</v>
@@ -225,6 +267,125 @@
       </c>
       <c r="E7" t="n">
         <v>91.0513976791546</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>79.54018597718631</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88.65988355490654</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.78424090281938</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.73639289745111</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.8485575311296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.63622894184246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>52.142437068964384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.93475052430219</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.008046662591795</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.731510827888584</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48.25823168897092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39.320612579206646</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.027072841825508</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37.84534184480779</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.52064695617114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.920079709972686</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33.3708151400246</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18.480366476993616</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.17228593965558</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.456678408942533</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.070183873553768</v>
       </c>
     </row>
   </sheetData>
